--- a/exports/orders.xlsx
+++ b/exports/orders.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +474,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-03 02:03:59</t>
+          <t>2025-12-02 23:55:11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -484,12 +484,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>партапрьт</t>
+          <t>Иоскевич</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+31457645745</t>
+          <t>+79822040408</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -499,143 +499,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Имба1</t>
+          <t>Кастомная 3D фигурка</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4 шт</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-12-03 02:29:45</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>sdsf</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>sdf</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>34536</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>sdfg</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>ексель</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>8 шт</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-12-03 02:40:10</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ыппппппп</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>впа</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>436536</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>dfdfg</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Имба</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
           <t>2 шт</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-12-03 03:57:16</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Владимир</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Иоскевич</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>74457457457</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>pitonovichh</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>ексель</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1 шт</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Имба</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1 шт</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>ыфва</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>1 шт</t>
         </is>
       </c>
     </row>
